--- a/tables/23-sediment_biogeochemistry/BookdownSDGVars.xlsx
+++ b/tables/23-sediment_biogeochemistry/BookdownSDGVars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\aed-science\tables\23-sediment_biogeochemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6309A8-217B-4CD0-B295-FC553656ACB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8833FA5-126E-420C-B66F-39C1FD68097C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31485" yWindow="-2970" windowWidth="26235" windowHeight="16440" activeTab="2" xr2:uid="{F6B05057-E09A-4BB0-A1FC-3E1A65DD7785}"/>
+    <workbookView xWindow="31515" yWindow="-2970" windowWidth="26205" windowHeight="16440" activeTab="5" xr2:uid="{F6B05057-E09A-4BB0-A1FC-3E1A65DD7785}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="CompulsoryVars" sheetId="6" r:id="rId3"/>
     <sheet name="Links" sheetId="2" r:id="rId4"/>
     <sheet name="Initial" sheetId="4" r:id="rId5"/>
-    <sheet name="lookup" sheetId="3" r:id="rId6"/>
+    <sheet name="Enviro" sheetId="7" r:id="rId6"/>
+    <sheet name="lookup" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="247">
   <si>
     <t xml:space="preserve">   variables</t>
   </si>
@@ -656,6 +657,147 @@
   </si>
   <si>
     <t>CH~4~</t>
+  </si>
+  <si>
+    <t>PRES</t>
+  </si>
+  <si>
+    <t>TEMP</t>
+  </si>
+  <si>
+    <t>SALT</t>
+  </si>
+  <si>
+    <t>LGHT</t>
+  </si>
+  <si>
+    <t>TAUB</t>
+  </si>
+  <si>
+    <t>MPBG</t>
+  </si>
+  <si>
+    <t>MPBR</t>
+  </si>
+  <si>
+    <t>ROOT</t>
+  </si>
+  <si>
+    <t>RTDP</t>
+  </si>
+  <si>
+    <t>RTO2</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>CANDI variable</t>
+  </si>
+  <si>
+    <t>Linked variable</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diffusivity </t>
+  </si>
+  <si>
+    <t>Microphytobenthos growth rate</t>
+  </si>
+  <si>
+    <t>Microphytobenthos respiration rate</t>
+  </si>
+  <si>
+    <t>Macrophyte root density</t>
+  </si>
+  <si>
+    <t>Macrophyte root depth</t>
+  </si>
+  <si>
+    <t>Macrophyte root oxygen excretion</t>
+  </si>
+  <si>
+    <t>\(\displaystyle \times 1.025E-3 \)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>\(\displaystyle \times \frac {1000 \times 365.25}{100 \times 100} \)</t>
+  </si>
+  <si>
+    <t>\(\displaystyle \times \frac {1} {100} \)</t>
+  </si>
+  <si>
+    <t>Environmental linked variable</t>
+  </si>
+  <si>
+    <t>*RTO2*</t>
+  </si>
+  <si>
+    <t>*RTDP*</t>
+  </si>
+  <si>
+    <t>*ROOT*</t>
+  </si>
+  <si>
+    <t>*MPBR*</t>
+  </si>
+  <si>
+    <t>*MPBG*</t>
+  </si>
+  <si>
+    <t>*TAUB*</t>
+  </si>
+  <si>
+    <t>*LGHT*</t>
+  </si>
+  <si>
+    <t>*SALT*</t>
+  </si>
+  <si>
+    <t>*TEMP*</t>
+  </si>
+  <si>
+    <t>*PRES*</t>
+  </si>
+  <si>
+    <t>*id_depth*</t>
+  </si>
+  <si>
+    <t>*id_rooto*</t>
+  </si>
+  <si>
+    <t>*id_rootd*</t>
+  </si>
+  <si>
+    <t>*id_rootb*</t>
+  </si>
+  <si>
+    <t>*id_mpbr*</t>
+  </si>
+  <si>
+    <t>*id_mpbg*</t>
+  </si>
+  <si>
+    <t>*id_taub*</t>
+  </si>
+  <si>
+    <t>*id_par*</t>
+  </si>
+  <si>
+    <t>*id_salt*</t>
+  </si>
+  <si>
+    <t>*id_temp*</t>
   </si>
 </sst>
 </file>
@@ -705,7 +847,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +938,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -844,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -882,12 +1030,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF006699"/>
+      <color rgb="FF009999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6820,7 +6981,7 @@
   <dimension ref="A2:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3:A43"/>
@@ -7266,13 +7427,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C11CFCB-06AD-48B4-84F0-6D37681F1DCA}">
-  <dimension ref="A2:C46"/>
+  <dimension ref="A2:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7283,13 +7444,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="37" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7829,8 +7990,132 @@
         <v>195</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" t="str">
+        <f>VLOOKUP($A47,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Pressure</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" t="str">
+        <f>VLOOKUP($A48,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Temperature</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" t="str">
+        <f>VLOOKUP($A49,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Salinity</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" t="str">
+        <f>VLOOKUP($A50,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Light</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" t="str">
+        <f>VLOOKUP($A51,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v xml:space="preserve">Diffusivity </v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" t="str">
+        <f>VLOOKUP($A52,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Microphytobenthos growth rate</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" t="str">
+        <f>VLOOKUP($A53,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Microphytobenthos respiration rate</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" t="str">
+        <f>VLOOKUP($A54,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Macrophyte root density</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" t="str">
+        <f>VLOOKUP($A55,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Macrophyte root depth</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" t="str">
+        <f>VLOOKUP($A56,lookup!$B$3:$E$86,2,FALSE)</f>
+        <v>Macrophyte root oxygen excretion</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="34"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10911,14 +11196,195 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C18338-C94F-4EFC-90BF-D479AB30C821}">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="35" t="str">
+        <f>D8</f>
+        <v>\(\displaystyle \times \frac {1000 \times 365.25}{100 \times 100} \)</v>
+      </c>
+      <c r="E9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="35" t="str">
+        <f>D8</f>
+        <v>\(\displaystyle \times \frac {1000 \times 365.25}{100 \times 100} \)</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC84A36-5762-4B23-AE16-728E9CC8AC9A}">
   <dimension ref="B2:G114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="C58" sqref="C58:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11569,7 +12035,7 @@
         <v>139</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" ref="D54:D57" si="5">C54&amp;$F$2</f>
+        <f t="shared" ref="D54" si="5">C54&amp;$F$2</f>
         <v>Adsorbed N (mmol m^-2^ y^-1^)</v>
       </c>
     </row>
@@ -11607,6 +12073,146 @@
       <c r="D57" t="str">
         <f t="shared" si="6"/>
         <v>Charge balance (-)</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" t="s">
+        <v>216</v>
+      </c>
+      <c r="D62" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">

--- a/tables/23-sediment_biogeochemistry/BookdownSDGVars.xlsx
+++ b/tables/23-sediment_biogeochemistry/BookdownSDGVars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\aed-science\tables\23-sediment_biogeochemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8833FA5-126E-420C-B66F-39C1FD68097C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873CB985-BEE9-4A2B-93FF-A2A4F85F9962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31515" yWindow="-2970" windowWidth="26205" windowHeight="16440" activeTab="5" xr2:uid="{F6B05057-E09A-4BB0-A1FC-3E1A65DD7785}"/>
+    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" activeTab="5" xr2:uid="{F6B05057-E09A-4BB0-A1FC-3E1A65DD7785}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Links" sheetId="2" r:id="rId4"/>
     <sheet name="Initial" sheetId="4" r:id="rId5"/>
     <sheet name="Enviro" sheetId="7" r:id="rId6"/>
-    <sheet name="lookup" sheetId="3" r:id="rId7"/>
+    <sheet name="Diag" sheetId="8" r:id="rId7"/>
+    <sheet name="lookup" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="307">
   <si>
     <t xml:space="preserve">   variables</t>
   </si>
@@ -728,15 +729,6 @@
     <t>\(\displaystyle \times 1.025E-3 \)</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>\(\displaystyle \times \frac {1000 \times 365.25}{100 \times 100} \)</t>
-  </si>
-  <si>
-    <t>\(\displaystyle \times \frac {1} {100} \)</t>
-  </si>
-  <si>
     <t>Environmental linked variable</t>
   </si>
   <si>
@@ -798,6 +790,199 @@
   </si>
   <si>
     <t>*id_temp*</t>
+  </si>
+  <si>
+    <t>\(\displaystyle \times \frac {1000 \times 365.25}{100 \times 100} \)
+\
+\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_opd  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_arpd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_fom  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_bur  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_toc  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_tfe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_tn   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_tp   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_ts   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_crs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_mnrl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_aerb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_anrb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_dnit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_mred </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_fred </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_sred </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_meth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_bpp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_biod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_poro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_stdi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_eror </t>
+  </si>
+  <si>
+    <t>id_c_swi</t>
+  </si>
+  <si>
+    <t>id_n_swi</t>
+  </si>
+  <si>
+    <t>id_p_swi</t>
+  </si>
+  <si>
+    <t>id_tnchk</t>
+  </si>
+  <si>
+    <t>Diag variable</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>diag_level &gt; 0</t>
+  </si>
+  <si>
+    <t>diag_level &gt; 1</t>
+  </si>
+  <si>
+    <t>diag_level &gt; 2</t>
+  </si>
+  <si>
+    <t>diag_level &gt; 9</t>
+  </si>
+  <si>
+    <t>Particulate organic matter flux at the bottom boundary</t>
+  </si>
+  <si>
+    <t>Mean porosity</t>
+  </si>
+  <si>
+    <t>Net carbon flux over the sediment-water interface</t>
+  </si>
+  <si>
+    <t>Net nitrogen flux over the sediment-water interface</t>
+  </si>
+  <si>
+    <t>Net phosphorus flux over the sediment-water interface</t>
+  </si>
+  <si>
+    <t>Net nitrogen mass change</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>mmol C m^-2^ d^-1^</t>
+  </si>
+  <si>
+    <t>mmol C m^-2^</t>
+  </si>
+  <si>
+    <t>mmol N m^-2^</t>
+  </si>
+  <si>
+    <t>mmol P m^-2^</t>
+  </si>
+  <si>
+    <t>mmol S m^-2^</t>
+  </si>
+  <si>
+    <t>mmol Fe m^-2^</t>
+  </si>
+  <si>
+    <t>mmol m^-2^ d ^-1^</t>
+  </si>
+  <si>
+    <t>m^3^ water m^-3^ space</t>
+  </si>
+  <si>
+    <t>mmol N m^-2^ d^-1^</t>
+  </si>
+  <si>
+    <t>mmol P m^-2^ d^-1^</t>
+  </si>
+  <si>
+    <t>Oxygen penetration depth, where *O~2~* &gt; 0.1 mmol L^-1^</t>
+  </si>
+  <si>
+    <t>Apparent redox potential discontinuity, where *H~2~S* &gt; 0.001 mmol L^-1^</t>
+  </si>
+  <si>
+    <t>Bioturbation penetration depth, where bioturbation &gt; 2E-5</t>
+  </si>
+  <si>
+    <t>Particulate organic matter flux at the SWI. Sum of *POCL*, *POCR* and *POCS*</t>
+  </si>
+  <si>
+    <t>Total organic carbon in the top 15 cm</t>
+  </si>
+  <si>
+    <t>Total nitrogen in the top 15 cm</t>
+  </si>
+  <si>
+    <t>Total phosphorus in the top 15 cm</t>
+  </si>
+  <si>
+    <t>Total sulfur '*</t>
+  </si>
+  <si>
+    <t>Total iron '*</t>
+  </si>
+  <si>
+    <t>Chromium reducable sulfur '*</t>
+  </si>
+  <si>
+    <t>Net *MPB* productivity, growth rate minus respiration rate</t>
+  </si>
+  <si>
+    <t>\(\displaystyle \times \frac {1} {100} \)
+\
+\</t>
   </si>
 </sst>
 </file>
@@ -7999,7 +8184,7 @@
         <v>Pressure</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8011,7 +8196,7 @@
         <v>Temperature</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8023,7 +8208,7 @@
         <v>Salinity</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -8035,7 +8220,7 @@
         <v>Light</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -8047,7 +8232,7 @@
         <v xml:space="preserve">Diffusivity </v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -8059,7 +8244,7 @@
         <v>Microphytobenthos growth rate</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -8071,7 +8256,7 @@
         <v>Microphytobenthos respiration rate</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -8083,7 +8268,7 @@
         <v>Macrophyte root density</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -8095,7 +8280,7 @@
         <v>Macrophyte root depth</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -8107,7 +8292,7 @@
         <v>Macrophyte root oxygen excretion</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -8805,127 +8990,127 @@
         <v>Salinity (PSU)</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="F2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="G2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="H2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="I2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="J2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="K2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>40000</v>
       </c>
       <c r="L2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="M2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>45000</v>
       </c>
       <c r="N2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>45000</v>
       </c>
       <c r="O2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>45000</v>
       </c>
       <c r="P2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>45000</v>
       </c>
       <c r="Q2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>50000</v>
       </c>
       <c r="R2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>60000</v>
       </c>
       <c r="S2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>60000</v>
       </c>
       <c r="T2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>55000</v>
       </c>
       <c r="U2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>60000</v>
       </c>
       <c r="V2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>75000</v>
       </c>
       <c r="W2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>65000</v>
       </c>
       <c r="X2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>75000</v>
       </c>
       <c r="Y2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>75000</v>
       </c>
       <c r="Z2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>75000</v>
       </c>
       <c r="AA2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>75000</v>
       </c>
       <c r="AB2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>85000</v>
       </c>
       <c r="AC2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>85000</v>
       </c>
       <c r="AD2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>85000</v>
       </c>
       <c r="AE2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>85000</v>
       </c>
       <c r="AF2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>85000</v>
       </c>
       <c r="AG2">
-        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A2, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>85000</v>
       </c>
     </row>
@@ -8938,127 +9123,127 @@
         <v>Labile POC (mmol m^-3^ solids)</v>
       </c>
       <c r="C3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="F3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="G3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="H3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="I3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="J3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="K3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="L3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="M3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="N3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="O3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="P3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Q3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="R3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="S3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="T3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="U3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="V3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="W3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="X3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Y3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Z3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AA3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AB3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AC3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AD3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AE3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AF3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AG3">
-        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A3, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
     </row>
@@ -9071,127 +9256,127 @@
         <v>Refractory POC (mmol m^-3^ solids)</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>900000</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3330000</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3330000</v>
       </c>
       <c r="F4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3690000</v>
       </c>
       <c r="G4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>900000</v>
       </c>
       <c r="H4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3690000</v>
       </c>
       <c r="I4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3690000</v>
       </c>
       <c r="J4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1305000</v>
       </c>
       <c r="K4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>6165000</v>
       </c>
       <c r="L4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3690000</v>
       </c>
       <c r="M4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1350000</v>
       </c>
       <c r="N4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>4410000</v>
       </c>
       <c r="O4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>2700000</v>
       </c>
       <c r="P4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>2700000</v>
       </c>
       <c r="Q4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>17550000</v>
       </c>
       <c r="R4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3600000</v>
       </c>
       <c r="S4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>4590000</v>
       </c>
       <c r="T4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>6210000</v>
       </c>
       <c r="U4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>2700000</v>
       </c>
       <c r="V4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8235000</v>
       </c>
       <c r="W4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>17550000</v>
       </c>
       <c r="X4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3600000</v>
       </c>
       <c r="Y4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>2070000</v>
       </c>
       <c r="Z4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>14400000</v>
       </c>
       <c r="AA4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>11700000</v>
       </c>
       <c r="AB4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>2700000</v>
       </c>
       <c r="AC4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>14400000</v>
       </c>
       <c r="AD4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>4500000</v>
       </c>
       <c r="AE4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>2700000</v>
       </c>
       <c r="AF4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>18000000</v>
       </c>
       <c r="AG4">
-        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A4, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>2700000</v>
       </c>
     </row>
@@ -9204,127 +9389,127 @@
         <v>Labile PON (mmol m^-3^ solids)</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="E5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="F5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="G5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="H5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="I5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="J5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="K5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="L5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="M5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="N5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="O5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="P5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Q5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="R5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="S5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="T5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="U5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="V5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="W5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="X5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Y5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Z5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AA5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AB5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AC5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AD5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AE5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AF5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AG5">
-        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A5, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
     </row>
@@ -9337,127 +9522,127 @@
         <v>Refractory PON (mmol m^-3^ solids)</v>
       </c>
       <c r="C6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>100000</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>370000</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>370000</v>
       </c>
       <c r="F6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>410000</v>
       </c>
       <c r="G6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>100000</v>
       </c>
       <c r="H6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>410000</v>
       </c>
       <c r="I6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>410000</v>
       </c>
       <c r="J6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>145000</v>
       </c>
       <c r="K6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>685000</v>
       </c>
       <c r="L6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>410000</v>
       </c>
       <c r="M6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>150000</v>
       </c>
       <c r="N6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>490000</v>
       </c>
       <c r="O6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>300000</v>
       </c>
       <c r="P6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>300000</v>
       </c>
       <c r="Q6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1950000</v>
       </c>
       <c r="R6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>400000</v>
       </c>
       <c r="S6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>510000</v>
       </c>
       <c r="T6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>690000</v>
       </c>
       <c r="U6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>300000</v>
       </c>
       <c r="V6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>915000</v>
       </c>
       <c r="W6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1950000</v>
       </c>
       <c r="X6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>400000</v>
       </c>
       <c r="Y6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>230000</v>
       </c>
       <c r="Z6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1600000</v>
       </c>
       <c r="AA6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1300000</v>
       </c>
       <c r="AB6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>300000</v>
       </c>
       <c r="AC6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1600000</v>
       </c>
       <c r="AD6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>500000</v>
       </c>
       <c r="AE6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>300000</v>
       </c>
       <c r="AF6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>2000000</v>
       </c>
       <c r="AG6">
-        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A6, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>300000</v>
       </c>
     </row>
@@ -9470,127 +9655,127 @@
         <v>Labile POP (mmol m^-3^ solids)</v>
       </c>
       <c r="C7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="E7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="F7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="G7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="H7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="I7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="J7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="K7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="L7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="M7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="N7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="O7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="P7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Q7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="R7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="S7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="T7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="U7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="V7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="W7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="X7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Y7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Z7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AA7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AB7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AC7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AD7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AE7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AF7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AG7">
-        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A7, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
     </row>
@@ -9603,127 +9788,127 @@
         <v>Refractory POP (mmol m^-3^ solids)</v>
       </c>
       <c r="C8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1053</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3895</v>
       </c>
       <c r="E8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3895</v>
       </c>
       <c r="F8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>4316</v>
       </c>
       <c r="G8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1053</v>
       </c>
       <c r="H8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>4316</v>
       </c>
       <c r="I8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>4316</v>
       </c>
       <c r="J8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1526</v>
       </c>
       <c r="K8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>7211</v>
       </c>
       <c r="L8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>4316</v>
       </c>
       <c r="M8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1579</v>
       </c>
       <c r="N8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5158</v>
       </c>
       <c r="O8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3158</v>
       </c>
       <c r="P8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3158</v>
       </c>
       <c r="Q8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>20526</v>
       </c>
       <c r="R8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>4211</v>
       </c>
       <c r="S8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5368</v>
       </c>
       <c r="T8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>7263</v>
       </c>
       <c r="U8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>4158</v>
       </c>
       <c r="V8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>9632</v>
       </c>
       <c r="W8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>20526</v>
       </c>
       <c r="X8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>4211</v>
       </c>
       <c r="Y8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>2421</v>
       </c>
       <c r="Z8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>16842</v>
       </c>
       <c r="AA8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>13684</v>
       </c>
       <c r="AB8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3158</v>
       </c>
       <c r="AC8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>16842</v>
       </c>
       <c r="AD8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5263</v>
       </c>
       <c r="AE8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3158</v>
       </c>
       <c r="AF8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>21053</v>
       </c>
       <c r="AG8">
-        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A8, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>3158</v>
       </c>
     </row>
@@ -9736,127 +9921,127 @@
         <v>Refractory DOC (mmol m^-3^ porewater)</v>
       </c>
       <c r="C9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="F9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="G9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="H9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="I9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="J9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="K9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="L9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="M9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="N9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="O9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="P9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Q9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="R9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="S9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="T9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="U9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="V9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="W9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="X9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Y9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Z9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AA9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AB9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AC9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AD9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AE9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AF9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AG9">
-        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A9, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
     </row>
@@ -9869,127 +10054,127 @@
         <v>Refractory DON (mmol m^-3^ porewater)</v>
       </c>
       <c r="C10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="E10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="F10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="G10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="H10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="I10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="J10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="K10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="L10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="M10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="N10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="O10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="P10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Q10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="R10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="S10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="T10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="U10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="V10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="W10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="X10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Y10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Z10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AA10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AB10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AC10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AD10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AE10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AF10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AG10">
-        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A10, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
     </row>
@@ -10002,127 +10187,127 @@
         <v>Refractory DOP (mmol m^-3^ porewater)</v>
       </c>
       <c r="C11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="E11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="F11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="G11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="H11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="I11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="J11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="K11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="L11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="M11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="N11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="O11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="P11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Q11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="R11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="S11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="T11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="U11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="V11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="W11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="X11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Y11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="Z11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AA11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AB11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AC11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AD11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AE11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AF11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="AG11">
-        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A11, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
     </row>
@@ -10135,127 +10320,127 @@
         <v>Reactive dissolved PO~4~^3-^ (mmol m^-3^ porewater)</v>
       </c>
       <c r="C12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="E12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="F12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="G12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="H12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="I12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="J12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="K12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="L12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="M12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="N12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="O12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="P12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="Q12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="R12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="S12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="T12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="U12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="V12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="W12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="X12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="Y12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="Z12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="AA12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="AB12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="AC12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="AD12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="AE12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="AF12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
       <c r="AG12">
-        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A12, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -10268,127 +10453,127 @@
         <v>SO~4~^2-^ (mmol m^-3^ porewater)</v>
       </c>
       <c r="C13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="E13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="F13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="G13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="H13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="I13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="J13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="K13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="L13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="M13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="N13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="O13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="P13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="Q13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="R13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="S13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="T13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="U13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="V13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="W13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="X13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="Y13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="Z13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="AA13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="AB13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="AC13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="AD13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="AE13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="AF13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
       <c r="AG13">
-        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A13, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>35000</v>
       </c>
     </row>
@@ -10401,127 +10586,127 @@
         <v>H~2~S (mmol m^-3^ porewater)</v>
       </c>
       <c r="C14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="E14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="F14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="G14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="H14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="I14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="J14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="K14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="L14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1E-10</v>
       </c>
       <c r="M14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>30</v>
       </c>
       <c r="N14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>30</v>
       </c>
       <c r="O14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>30</v>
       </c>
       <c r="P14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>30</v>
       </c>
       <c r="Q14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>36</v>
       </c>
       <c r="R14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>36</v>
       </c>
       <c r="S14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>36</v>
       </c>
       <c r="T14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>36</v>
       </c>
       <c r="U14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>36</v>
       </c>
       <c r="V14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>57</v>
       </c>
       <c r="W14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>57</v>
       </c>
       <c r="X14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>57</v>
       </c>
       <c r="Y14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>57</v>
       </c>
       <c r="Z14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>57</v>
       </c>
       <c r="AA14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>57</v>
       </c>
       <c r="AB14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>72</v>
       </c>
       <c r="AC14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>72</v>
       </c>
       <c r="AD14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>72</v>
       </c>
       <c r="AE14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>72</v>
       </c>
       <c r="AF14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>72</v>
       </c>
       <c r="AG14">
-        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A14, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>72</v>
       </c>
     </row>
@@ -10534,127 +10719,127 @@
         <v>Amorphous MnO~2~ (mmol m^-3^ solids)</v>
       </c>
       <c r="C15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="E15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="F15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="G15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="H15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="I15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="J15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="K15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="L15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="M15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="N15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="O15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="P15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="Q15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="R15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="S15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="T15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="U15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="V15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="W15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="X15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="Y15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="Z15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="AA15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="AB15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="AC15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="AD15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="AE15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="AF15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
       <c r="AG15">
-        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A15, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10</v>
       </c>
     </row>
@@ -10667,127 +10852,127 @@
         <v>FeS (mmol m^-3^ solids)</v>
       </c>
       <c r="C16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8200</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8200</v>
       </c>
       <c r="E16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8200</v>
       </c>
       <c r="F16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8200</v>
       </c>
       <c r="G16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8200</v>
       </c>
       <c r="H16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8200</v>
       </c>
       <c r="I16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8200</v>
       </c>
       <c r="J16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8200</v>
       </c>
       <c r="K16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>25000</v>
       </c>
       <c r="L16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8200</v>
       </c>
       <c r="M16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5600</v>
       </c>
       <c r="N16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>14000</v>
       </c>
       <c r="O16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5600</v>
       </c>
       <c r="P16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>5600</v>
       </c>
       <c r="Q16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8000</v>
       </c>
       <c r="R16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8000</v>
       </c>
       <c r="S16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8000</v>
       </c>
       <c r="T16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>15400</v>
       </c>
       <c r="U16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>8000</v>
       </c>
       <c r="V16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>11000</v>
       </c>
       <c r="W16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>10000</v>
       </c>
       <c r="X16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>11000</v>
       </c>
       <c r="Y16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>11000</v>
       </c>
       <c r="Z16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>6000</v>
       </c>
       <c r="AA16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>21000</v>
       </c>
       <c r="AB16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1300</v>
       </c>
       <c r="AC16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>43000</v>
       </c>
       <c r="AD16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1300</v>
       </c>
       <c r="AE16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1300</v>
       </c>
       <c r="AF16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>43000</v>
       </c>
       <c r="AG16">
-        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A16, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>1300</v>
       </c>
     </row>
@@ -10800,127 +10985,127 @@
         <v>FeS~2~ (mmol m^-3^ solids)</v>
       </c>
       <c r="C17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>71000</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>71000</v>
       </c>
       <c r="E17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>71000</v>
       </c>
       <c r="F17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>71000</v>
       </c>
       <c r="G17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>71000</v>
       </c>
       <c r="H17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>71000</v>
       </c>
       <c r="I17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>71000</v>
       </c>
       <c r="J17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>71000</v>
       </c>
       <c r="K17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>925000</v>
       </c>
       <c r="L17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>71000</v>
       </c>
       <c r="M17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>39000</v>
       </c>
       <c r="N17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>107000</v>
       </c>
       <c r="O17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>39000</v>
       </c>
       <c r="P17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>39000</v>
       </c>
       <c r="Q17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>749</v>
       </c>
       <c r="R17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>18000</v>
       </c>
       <c r="S17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>18000</v>
       </c>
       <c r="T17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>126000</v>
       </c>
       <c r="U17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>18000</v>
       </c>
       <c r="V17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>42000</v>
       </c>
       <c r="W17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>123000</v>
       </c>
       <c r="X17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>42000</v>
       </c>
       <c r="Y17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>42000</v>
       </c>
       <c r="Z17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>75000</v>
       </c>
       <c r="AA17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>268000</v>
       </c>
       <c r="AB17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>92000</v>
       </c>
       <c r="AC17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>692000</v>
       </c>
       <c r="AD17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>92000</v>
       </c>
       <c r="AE17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>92000</v>
       </c>
       <c r="AF17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>692000</v>
       </c>
       <c r="AG17">
-        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A17, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>92000</v>
       </c>
     </row>
@@ -10933,127 +11118,127 @@
         <v>Unreactive solid P (mmol m^-3^ solids)</v>
       </c>
       <c r="C18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="R18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="S18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="T18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="U18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="V18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="W18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="X18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Y18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Z18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AA18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AB18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AC18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AD18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AE18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AF18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AG18" t="e">
-        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A18, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11066,127 +11251,127 @@
         <v>CaCO~3~ (mmol m^-3^ solids)</v>
       </c>
       <c r="C19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(C$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(D$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(E$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(F$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(G$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(H$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(I$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(J$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(K$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(L$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(M$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="N19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(N$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(O$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="P19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(P$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(Q$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="R19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(R$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="S19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(S$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="T19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(T$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="U19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(U$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="V19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(V$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="W19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(W$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="X19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(X$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Y19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(Y$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Z19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(Z$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AA19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AA$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AB19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AB$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AC19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AC$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AD19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AD$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AE19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AE$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AF19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AF$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AG19" t="e">
-        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$84:$D$114,3,FALSE), FALSE)</f>
+        <f>VLOOKUP(  $A19, Import!$A$1:$AM$45, VLOOKUP(AG$1,lookup!$B$109:$D$139,3,FALSE), FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -11203,7 +11388,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11230,10 +11415,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
         <v>222</v>
@@ -11244,84 +11429,78 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>223</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D4" s="33"/>
       <c r="E4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>223</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="D5" s="33"/>
       <c r="E5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>223</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D6" s="33"/>
       <c r="E6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>223</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D7" s="33"/>
       <c r="E7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D9" s="35" t="str">
         <f>D8</f>
-        <v>\(\displaystyle \times \frac {1000 \times 365.25}{100 \times 100} \)</v>
+        <v>\(\displaystyle \times \frac {1000 \times 365.25}{100 \times 100} \)
+\
+\</v>
       </c>
       <c r="E9" t="s">
         <v>218</v>
@@ -11329,42 +11508,42 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>223</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D10" s="36"/>
       <c r="E10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="E11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D12" s="35" t="str">
         <f>D8</f>
-        <v>\(\displaystyle \times \frac {1000 \times 365.25}{100 \times 100} \)</v>
+        <v>\(\displaystyle \times \frac {1000 \times 365.25}{100 \times 100} \)
+\
+\</v>
       </c>
       <c r="E12" t="s">
         <v>221</v>
@@ -11377,20 +11556,460 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4197FF2-7228-4731-9B3C-010A8650D3D5}">
+  <dimension ref="B2:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(B3,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Oxygen penetration depth, where *O~2~* &gt; 0.1 mmol L^-1^</v>
+      </c>
+      <c r="D3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Apparent redox potential discontinuity, where *H~2~S* &gt; 0.001 mmol L^-1^</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" t="str">
+        <f>E3</f>
+        <v>diag_level &gt; 0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(B5,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Particulate organic matter flux at the SWI. Sum of *POCL*, *POCR* and *POCS*</v>
+      </c>
+      <c r="D5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E30" si="0">E4</f>
+        <v>diag_level &gt; 0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(B6,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Particulate organic matter flux at the bottom boundary</v>
+      </c>
+      <c r="D6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(B7,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Total organic carbon in the top 15 cm</v>
+      </c>
+      <c r="D7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(B8,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Total iron '*</v>
+      </c>
+      <c r="D8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(B9,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Total nitrogen in the top 15 cm</v>
+      </c>
+      <c r="D9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(B10,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Total phosphorus in the top 15 cm</v>
+      </c>
+      <c r="D10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(B11,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Total sulfur '*</v>
+      </c>
+      <c r="D11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(B12,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Chromium reducable sulfur '*</v>
+      </c>
+      <c r="D12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13">
+        <f>VLOOKUP(B13,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14">
+        <f>VLOOKUP(B14,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15">
+        <f>VLOOKUP(B15,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16">
+        <f>VLOOKUP(B16,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17">
+        <f>VLOOKUP(B17,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18">
+        <f>VLOOKUP(B18,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19">
+        <f>VLOOKUP(B19,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20">
+        <f>VLOOKUP(B20,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(B21,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Net *MPB* productivity, growth rate minus respiration rate</v>
+      </c>
+      <c r="D21" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP(B22,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Bioturbation penetration depth, where bioturbation &gt; 2E-5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" t="str">
+        <f>VLOOKUP(B23,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Mean porosity</v>
+      </c>
+      <c r="D23" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24">
+        <f>VLOOKUP(B24,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25">
+        <f>VLOOKUP(B25,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" t="str">
+        <f>VLOOKUP(B26,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Net carbon flux over the sediment-water interface</v>
+      </c>
+      <c r="D26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E26" t="str">
+        <f>E25</f>
+        <v>diag_level &gt; 9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" t="str">
+        <f>VLOOKUP(B27,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Net nitrogen flux over the sediment-water interface</v>
+      </c>
+      <c r="D27" t="s">
+        <v>293</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" t="str">
+        <f>VLOOKUP(B28,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Net phosphorus flux over the sediment-water interface</v>
+      </c>
+      <c r="D28" t="s">
+        <v>294</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>271</v>
+      </c>
+      <c r="C29" t="str">
+        <f>VLOOKUP(B29,lookup!$B$3:$G$107,2,FALSE)</f>
+        <v>Net nitrogen mass change</v>
+      </c>
+      <c r="D29" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>diag_level &gt; 9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC84A36-5762-4B23-AE16-728E9CC8AC9A}">
-  <dimension ref="B2:G114"/>
+  <dimension ref="B2:G139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58:E67"/>
+      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
     <col min="4" max="4" width="51.5703125" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
@@ -12215,370 +12834,556 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84">
+    <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>245</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>249</v>
+      </c>
+      <c r="C74" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>268</v>
+      </c>
+      <c r="C93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>269</v>
+      </c>
+      <c r="C94" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>270</v>
+      </c>
+      <c r="C95" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109">
         <v>104</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C109" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D84">
+      <c r="D109">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110">
         <v>103</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C110" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D85">
+      <c r="D110">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111">
         <v>102</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C111" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D86">
+      <c r="D111">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112">
         <v>101</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C112" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D87">
+      <c r="D112">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113">
         <v>93</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C113" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D88">
+      <c r="D113">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <f>B86-10</f>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <f>B111-10</f>
         <v>92</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C114" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D89">
+      <c r="D114">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <f t="shared" ref="B90:B114" si="7">B87-10</f>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <f t="shared" ref="B115:B139" si="7">B112-10</f>
         <v>91</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C115" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D90">
+      <c r="D115">
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C116" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D91">
+      <c r="D116">
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C117" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D92">
+      <c r="D117">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118">
         <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C118" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D93">
+      <c r="D118">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119">
         <f t="shared" si="7"/>
         <v>73</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="C119" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D94">
+      <c r="D119">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120">
         <f t="shared" si="7"/>
         <v>72</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C120" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D95">
+      <c r="D120">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121">
         <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C121" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D96">
+      <c r="D121">
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122">
         <f t="shared" si="7"/>
         <v>63</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C122" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D97">
+      <c r="D122">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123">
         <f t="shared" si="7"/>
         <v>62</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C123" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D98">
+      <c r="D123">
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C124" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D99">
+      <c r="D124">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125">
         <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C125" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D100">
+      <c r="D125">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C126" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D101">
+      <c r="D126">
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127">
         <f t="shared" si="7"/>
         <v>51</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C127" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D102">
+      <c r="D127">
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128">
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C128" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D103">
+      <c r="D128">
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129">
         <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="C129" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D104">
+      <c r="D129">
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130">
         <f t="shared" si="7"/>
         <v>41</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C130" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D105">
+      <c r="D130">
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C131" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D106">
+      <c r="D131">
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="C107" s="23" t="s">
+      <c r="C132" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D107">
+      <c r="D132">
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="C108" s="23" t="s">
+      <c r="C133" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D108">
+      <c r="D133">
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C134" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D109">
+      <c r="D134">
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C135" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D110">
+      <c r="D135">
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="C111" s="23" t="s">
+      <c r="C136" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D111">
+      <c r="D136">
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="C112" s="23" t="s">
+      <c r="C137" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D112">
+      <c r="D137">
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="C138" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D113">
+      <c r="D138">
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="C114" s="23" t="s">
+      <c r="C139" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D114">
+      <c r="D139">
         <v>39</v>
       </c>
     </row>

--- a/tables/23-sediment_biogeochemistry/BookdownSDGVars.xlsx
+++ b/tables/23-sediment_biogeochemistry/BookdownSDGVars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00074264\AED Dropbox\AED_Coorong_db\5_reporting\CDM Manual\DanDrafts\aed-science\tables\23-sediment_biogeochemistry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873CB985-BEE9-4A2B-93FF-A2A4F85F9962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DC3F11-9DC2-4560-8F7E-F62607349D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60135" yWindow="-1335" windowWidth="26385" windowHeight="16440" activeTab="5" xr2:uid="{F6B05057-E09A-4BB0-A1FC-3E1A65DD7785}"/>
+    <workbookView xWindow="31515" yWindow="-2970" windowWidth="26205" windowHeight="16440" activeTab="1" xr2:uid="{F6B05057-E09A-4BB0-A1FC-3E1A65DD7785}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="1" r:id="rId1"/>
@@ -7165,11 +7165,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937828CD-D255-4E03-B426-28421FBF7C92}">
   <dimension ref="A2:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A43"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11384,7 +11384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C18338-C94F-4EFC-90BF-D479AB30C821}">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
